--- a/Дискретная математика для программистов/таблица 1-1.xlsx
+++ b/Дискретная математика для программистов/таблица 1-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Облоко Mail.ru\pesok\Дискретная математика для программистов\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A445C47-647F-4A07-8FFF-10DEA7138B17}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172AB31B-1252-41F8-9406-028C66D87B0B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="24240" windowHeight="13140" xr2:uid="{82A3C989-9553-40C9-ACBB-161F03ADA140}"/>
   </bookViews>
@@ -248,24 +248,59 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -583,164 +618,166 @@
   <dimension ref="B3:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="3" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="9" width="3" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C3" s="11" t="s">
+    <row r="3" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="12" t="s">
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
+    <row r="4" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="2">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2">
+      <c r="C4" s="6"/>
+      <c r="D4" s="7">
+        <v>3</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7">
         <v>2</v>
       </c>
-      <c r="I4" s="3"/>
+      <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
+    <row r="5" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="4">
-        <v>3</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6">
-        <v>3</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="7">
+      <c r="C5" s="10">
+        <v>3</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12">
+        <v>3</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="13">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
+    <row r="6" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="6">
-        <v>3</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6">
-        <v>3</v>
-      </c>
-      <c r="G6" s="6">
+      <c r="C6" s="10"/>
+      <c r="D6" s="12">
+        <v>3</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12">
+        <v>3</v>
+      </c>
+      <c r="G6" s="12">
         <v>2</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="7">
+      <c r="H6" s="12"/>
+      <c r="I6" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6">
-        <v>3</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6">
+    <row r="7" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12">
+        <v>3</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="12">
         <v>5</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="7"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="s">
+    <row r="8" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6">
+      <c r="C8" s="10"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12">
         <v>2</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="12">
         <v>5</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6">
+      <c r="G8" s="11"/>
+      <c r="H8" s="12">
         <v>4</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="15" t="s">
+    <row r="9" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="10">
         <v>2</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6">
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12">
         <v>4</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="7">
+      <c r="H9" s="11"/>
+      <c r="I9" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="16" t="s">
+    <row r="10" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9">
+      <c r="C10" s="15"/>
+      <c r="D10" s="16">
         <v>6</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="16">
         <v>1</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9">
-        <v>3</v>
-      </c>
-      <c r="H10" s="9">
-        <v>3</v>
-      </c>
-      <c r="I10" s="10"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16">
+        <v>3</v>
+      </c>
+      <c r="H10" s="16">
+        <v>3</v>
+      </c>
+      <c r="I10" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
